--- a/public/Lista001.xlsx
+++ b/public/Lista001.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyectos\PrecioSuc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B18357-7ABD-4859-8961-00AB109DF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DD0B21-FAA9-4433-A624-4D008FB09432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{3C8842B9-2B02-4DA7-A4D6-A6C0C4779E48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{275C65BF-C537-4846-9F2A-C7FBE5DDBA61}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCBBNAV0_1.XML" sheetId="1" r:id="rId1"/>
+    <sheet name="SCBBOYY0_1.XML" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -14886,7 +14886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE9D3-2EC7-4331-ADDD-8F291861D6DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A04A273-693D-4607-94C4-D25C154F48D8}">
   <dimension ref="A1:D4587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
